--- a/RESULTS/SET 1 [0..5] Single/060.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/060.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,7 +86,7 @@
     <t>Mallow Test</t>
   </si>
   <si>
-    <t>030055</t>
+    <t>010055</t>
   </si>
   <si>
     <t>O-O</t>
@@ -98,7 +95,175 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>003100</t>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>020155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>041155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>120055</t>
+  </si>
+  <si>
+    <t>012100</t>
+  </si>
+  <si>
+    <t>131155</t>
+  </si>
+  <si>
+    <t>013111</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>030155</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>010155</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>100055</t>
+  </si>
+  <si>
+    <t>010100</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>110155</t>
+  </si>
+  <si>
+    <t>011101</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>001111</t>
   </si>
   <si>
     <t>040055</t>
@@ -107,178 +272,16 @@
     <t>004100</t>
   </si>
   <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>001101</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>080155</t>
-  </si>
-  <si>
-    <t>008101</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>030155</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
     <t>060055</t>
   </si>
   <si>
     <t>006100</t>
   </si>
   <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>060155</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>050055</t>
-  </si>
-  <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
+    <t>070055</t>
+  </si>
+  <si>
+    <t>007100</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -711,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -726,27 +729,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>5.933680494684969</v>
+        <v>0.2310299630163553</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.879862826626702e-07</v>
+        <v>3.907979268309839e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006228854490696264</v>
+        <v>0.0006251383261574865</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9188031898525021</v>
+        <v>0.9220445133766511</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9157884568024712</v>
+        <v>0.9191501264970713</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>59.20233926662603</v>
+        <v>45.18247557168349</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -755,31 +758,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-14.64916068684455</v>
+        <v>-0.6575428452394555</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -798,16 +801,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -822,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1640012453901954</v>
+        <v>10.64688493815027</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -841,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -850,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -865,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1802772866367663</v>
+        <v>10.25802144111009</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -884,16 +887,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -908,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>812.683887363256</v>
+        <v>-32.04463325645933</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -927,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -936,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -951,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-13629.58425406762</v>
+        <v>-248.0066655277264</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -970,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>144557.4377853516</v>
+        <v>29.16972332337161</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1013,7 +1016,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -1022,7 +1025,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1037,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3065275404610723</v>
+        <v>2554.434181247453</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1056,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -1065,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1080,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-292929.8402664831</v>
+        <v>-63327.7582555604</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1099,16 +1102,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1117,13 +1120,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>174614.3226687465</v>
+        <v>915.0658786965591</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1142,16 +1145,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1160,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>23419.98282887326</v>
+        <v>671805.7226883291</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1185,13 +1188,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
         <v>-14</v>
@@ -1203,13 +1206,13 @@
         <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-118642.8246848219</v>
+        <v>-1343857.684536798</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1228,16 +1231,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.63985842843249</v>
+        <v>793535.0789708194</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1271,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1295,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.9944530813954771</v>
+        <v>-481.7420102919968</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1314,16 +1317,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1338,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5538582786975894</v>
+        <v>637.102827892164</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1438,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1453,36 +1456,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2419420661686199</v>
+        <v>0.06442712480594909</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.602952566292752e-07</v>
+        <v>4.474450626834109e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006784506294707635</v>
+        <v>0.0006689133446743389</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9036705465259558</v>
+        <v>0.9107446708288559</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9022710871534515</v>
+        <v>0.9094479832379918</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>136.7628149326278</v>
+        <v>101.335779601</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1494,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1506,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1515,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.117923724077849</v>
+        <v>-0.1244274056656896</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1534,13 +1537,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1549,16 +1552,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05747536134649518</v>
+        <v>0.2408576937330538</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1577,22 +1580,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1601,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1586.796320826114</v>
+        <v>17742.91223480465</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1620,31 +1623,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-194.808067204809</v>
+        <v>-0.1129067761318212</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1663,22 +1666,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.520676200926405</v>
+        <v>4.280765886200362</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1790,10 +1793,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1802,7 +1805,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1811,27 +1814,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1196548897526861</v>
+        <v>-0.1194056890177573</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.648368829420048e-07</v>
+        <v>4.699591956216369e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006817894711287384</v>
+        <v>0.0006855356997426443</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9027200861979647</v>
+        <v>0.9062536025078582</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9015452080119498</v>
+        <v>0.9051213996395957</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>141.4666984286083</v>
+        <v>126.2562569881148</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1840,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1855,16 +1858,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2444809555403923</v>
+        <v>0.05872522380079991</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1883,13 +1886,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1898,16 +1901,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05855851747385565</v>
+        <v>0.2425954710981675</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1926,22 +1929,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1950,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1553.250622309688</v>
+        <v>24038.4841715363</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1969,22 +1972,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1993,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-188.3012396444303</v>
+        <v>-5.375847504022635</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2006,666 +2009,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1338006888270511</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>5.894211373314326e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007677376748157098</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8766474014071443</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8754584606978155</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>288.9542147545068</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06558501393701288</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2711408923416694</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14078.70759306055</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.07665609781405792</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.214114544968647e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001101868660489374</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.745913109276479</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7440807518914536</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1033.32589244523</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03730139117656829</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1559934509651983</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01542972064304915</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.082519254440296e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001443093640218921</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5641755183434818</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5620852330597574</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>2072.490126623184</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003340400158145722</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2753,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2768,36 +2111,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1139642991466294</v>
+        <v>0.2298031825812072</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.920391229164345e-07</v>
+        <v>3.942823667722632e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006261302763135117</v>
+        <v>0.0006279190766112009</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9179550214626697</v>
+        <v>0.9213494451775054</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9151188987477991</v>
+        <v>0.9186306605663574</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>63.01535976515233</v>
+        <v>48.14676320248212</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2806,22 +2149,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -2830,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1398831018605072</v>
+        <v>-0.8782580225057957</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2849,22 +2192,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2873,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.219324995608542</v>
+        <v>3.142394380780023</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2892,13 +2235,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -2907,16 +2250,16 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>13.69526684942616</v>
+        <v>10.52231953395158</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2935,13 +2278,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>-6</v>
@@ -2950,16 +2293,16 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-124.7988784652271</v>
+        <v>-273.370914299631</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2978,22 +2321,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3002,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>505.9041396338743</v>
+        <v>3396.593615848372</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3021,31 +2364,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>85602.8173388218</v>
+        <v>-21318.01845450477</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3064,22 +2407,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -3088,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-180258.5948563076</v>
+        <v>885.6515453912006</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3107,22 +2450,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3131,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-64869.29424695966</v>
+        <v>-5.414190343824998</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3153,7 +2496,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -3165,7 +2508,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3174,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>277031.0054997114</v>
+        <v>401074.3211032985</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3196,7 +2539,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -3208,7 +2551,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3217,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-422897.7021754237</v>
+        <v>-903843.5400798756</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3239,7 +2582,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -3251,7 +2594,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3260,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>224951.0487241214</v>
+        <v>570004.8172630373</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3279,22 +2622,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3303,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>12.62130630566389</v>
+        <v>3.572498193172578</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3322,22 +2665,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3346,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1930381668789778</v>
+        <v>-0.5854913049715833</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3446,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3461,36 +2804,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1211833307926718</v>
+        <v>0.2292536487395899</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.070895035140334e-07</v>
+        <v>3.945549832446283e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006380356600645715</v>
+        <v>0.0006281361184047835</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9148053150152041</v>
+        <v>0.9212950642601421</v>
       </c>
       <c r="O2" t="n">
-        <v>0.912077406382686</v>
+        <v>0.9187749554802944</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>79.64715009306947</v>
+        <v>47.53594634538818</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3499,22 +2842,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3523,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1397352619217851</v>
+        <v>-0.821178995961688</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3542,22 +2885,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3566,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.209814129244327</v>
+        <v>2.766718952073661</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3585,31 +2928,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.739229604462689</v>
+        <v>-4.499051957237251</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3628,31 +2971,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-56.10461708698482</v>
+        <v>2.788828119059601</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3671,22 +3014,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3695,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>494.7161754141896</v>
+        <v>150.3726513767323</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3714,22 +3057,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3738,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-64967.15625505767</v>
+        <v>-1158.001397360684</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3757,22 +3100,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3781,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>279392.2223960037</v>
+        <v>2593.494606689042</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3800,22 +3143,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3824,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-429314.6172635594</v>
+        <v>-17719.57098932824</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3843,16 +3186,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -3861,13 +3204,13 @@
         <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>229787.4256374998</v>
+        <v>882.4438838110325</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3886,16 +3229,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -3904,13 +3247,13 @@
         <v>45</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>44764.5445941769</v>
+        <v>388149.8986826714</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3929,31 +3272,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-92557.78696434153</v>
+        <v>-887390.3266400696</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3972,13 +3315,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
         <v>-15</v>
@@ -3987,7 +3330,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3996,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.292233409301843</v>
+        <v>564958.6208426916</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4096,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4111,36 +3454,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1181437274433847</v>
+        <v>0.2115677854256496</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.139317786896691e-07</v>
+        <v>4.043303895433026e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006433753015850617</v>
+        <v>0.0006358697897709109</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9133733805803055</v>
+        <v>0.919345088319549</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9108192787792334</v>
+        <v>0.9169670565255308</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>86.7914245777519</v>
+        <v>57.58707553970557</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4149,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4164,7 +3507,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4173,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1322660825702882</v>
+        <v>-0.08689792637106214</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4192,31 +3535,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1910346848428559</v>
+        <v>158.2307308268757</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4235,13 +3578,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>-3</v>
@@ -4250,16 +3593,16 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.19793736942495</v>
+        <v>5.081394223288076</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4278,31 +3621,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.4292586048638</v>
+        <v>-30.62224935956353</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4321,22 +3664,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4345,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2835.67586859331</v>
+        <v>53.79429424760374</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4364,22 +3707,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4388,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-101348.7809280231</v>
+        <v>1.017306566068813</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4407,22 +3750,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4431,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>388434.4744453722</v>
+        <v>-74845.94011464427</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4450,22 +3793,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4474,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-561156.2933732577</v>
+        <v>365305.8142086547</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4493,22 +3836,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4517,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>289208.5595315055</v>
+        <v>-0.04787308454979211</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4536,31 +3879,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>26046.86496419553</v>
+        <v>-612631.8296651656</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4579,31 +3922,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-52427.4181558328</v>
+        <v>350474.0796917543</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4706,10 +4049,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4718,7 +4061,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4727,27 +4070,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1189237450005829</v>
+        <v>-0.1221034600241159</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.163174608000091e-07</v>
+        <v>4.110268108469838e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006452266739681561</v>
+        <v>0.0006411137269213504</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9128741109255739</v>
+        <v>0.9180093013423851</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9105251286220968</v>
+        <v>0.9157987678001455</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>88.76410927526261</v>
+        <v>64.22941934372727</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4756,22 +4099,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -4780,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8286494080869472</v>
+        <v>0.2385050295241034</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4799,22 +4142,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4823,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1097166966046657</v>
+        <v>11.00161944588191</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4842,31 +4185,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>385.8196430644185</v>
+        <v>-90.99233014478342</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4885,22 +4228,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4909,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.13083238026453</v>
+        <v>281.9327653530677</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4928,31 +4271,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.122000326815482</v>
+        <v>-313.4695083673062</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4971,31 +4314,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>22112.75573039864</v>
+        <v>14481.52506576677</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5014,22 +4357,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5038,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-169431.3984542435</v>
+        <v>36688.29458421864</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5057,22 +4400,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5081,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>490208.5994951947</v>
+        <v>-106571.6166045606</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5100,22 +4443,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5124,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-633145.0298537585</v>
+        <v>80475.09455714829</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5143,13 +4486,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>-15</v>
@@ -5158,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5167,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>307495.215752452</v>
+        <v>3.105402329915421</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5267,51 +4610,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2460618168648216</v>
+        <v>0.7085545978743157</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.327742985983036e-07</v>
+        <v>4.135667028484067e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006578558342055678</v>
+        <v>0.0006430915198075673</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9094300645918584</v>
+        <v>0.9175026494301111</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9072156407432486</v>
+        <v>0.9154855992939279</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>107.2428483746394</v>
+        <v>66.22284074278917</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5323,10 +4666,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5335,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -5344,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1201059632369376</v>
+        <v>-0.1220276911908875</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5363,13 +4706,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5378,16 +4721,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05864489059325755</v>
+        <v>0.2367550424893111</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5406,31 +4749,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1627.514142595405</v>
+        <v>-2.058843275197764</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5449,22 +4792,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -5473,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.643005780668614</v>
+        <v>17545.47731478209</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5492,22 +4835,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -5516,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>102905.3139912829</v>
+        <v>488.571173798873</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5535,22 +4878,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5559,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-33495.61200498372</v>
+        <v>-5243.477157977904</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5578,22 +4921,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5602,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-139190.9025934244</v>
+        <v>138144.8121219862</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5621,22 +4964,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5645,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>70065.70802702474</v>
+        <v>-332172.1823053648</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5664,22 +5007,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5688,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4040.525520791654</v>
+        <v>220651.3386579616</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5788,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5803,36 +5146,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2452997296770722</v>
+        <v>-0.1202529925275028</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.338168129805327e-07</v>
+        <v>4.29761671684498e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006586477153839773</v>
+        <v>0.0006555621036061328</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9092118897590036</v>
+        <v>0.9142721136729102</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9072189800220061</v>
+        <v>0.9123902820218277</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>107.7049087279059</v>
+        <v>83.66144334175068</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5841,13 +5184,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5856,16 +5199,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1225521907600166</v>
+        <v>0.2437417236257325</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5887,7 +5230,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -5899,7 +5242,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -5908,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06125179651183962</v>
+        <v>0.05944758983852474</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5927,22 +5270,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5951,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>800.8115549642389</v>
+        <v>19777.66559319424</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5970,31 +5313,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-259.6682317892038</v>
+        <v>-4977.498208921077</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6016,7 +5359,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -6028,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6037,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-471.4629005890653</v>
+        <v>6978.289577235467</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6056,31 +5399,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1709.733803134545</v>
+        <v>-0.1533467039133372</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6099,7 +5442,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -6108,7 +5451,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -6123,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1549.232632885318</v>
+        <v>-3211.502459651279</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6142,22 +5485,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6166,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.636454614404906</v>
+        <v>483.2607718636153</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6269,10 +5612,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6281,7 +5624,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6290,27 +5633,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1209742141055396</v>
+        <v>-0.1211592624685204</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.362561998724503e-07</v>
+        <v>4.317385075767728e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006604969340371311</v>
+        <v>0.0006570681148684456</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9087013809003398</v>
+        <v>0.9138777789198923</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9069242788254073</v>
+        <v>0.9122014339840264</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>109.8181519332298</v>
+        <v>85.08250281856868</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6319,13 +5662,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6334,16 +5677,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2424742025806305</v>
+        <v>0.06113775460325087</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6362,13 +5705,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6377,16 +5720,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06036530768216461</v>
+        <v>0.2398735147439367</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6405,22 +5748,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6429,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1278.929906221208</v>
+        <v>20005.89272078384</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6448,31 +5791,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-137.0804720823853</v>
+        <v>-1627.024618510628</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6491,22 +5834,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6515,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-439.5241626823024</v>
+        <v>6156.459390302546</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6534,22 +5877,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6558,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1595.210462758524</v>
+        <v>-5822.134554488815</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6577,31 +5920,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1446.198109481856</v>
+        <v>-0.6854803023277134</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6701,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6716,7 +6059,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6725,27 +6068,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1214878819345574</v>
+        <v>0.06323277833395742</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.402542654893275e-07</v>
+        <v>4.371851927461853e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006635165902140862</v>
+        <v>0.0006611998130264295</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9078646756111142</v>
+        <v>0.9127912864804139</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9062992696142156</v>
+        <v>0.9113095850371199</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>113.7855940509109</v>
+        <v>90.45469232475104</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6754,13 +6097,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6769,16 +6112,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2417372153572633</v>
+        <v>-0.1234598609916629</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6797,13 +6140,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6812,16 +6155,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06112553668342557</v>
+        <v>0.2404682783724297</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6840,22 +6183,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6864,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2223.020272715694</v>
+        <v>17941.61714100566</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6883,31 +6226,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-73.42003227727361</v>
+        <v>-24.5207223083549</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6926,22 +6269,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6950,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.614716714258247</v>
+        <v>1518.424652569845</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6969,22 +6312,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6993,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7905078881127251</v>
+        <v>-2283.425566782616</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
